--- a/Templates/PartnerPerformanceTemplate.xlsx
+++ b/Templates/PartnerPerformanceTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cuong\ky9\TripWiseAPI\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BA3D08-FC26-40A7-9BF5-529481702D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3251EEE9-2C71-4029-87AA-5E88F6E2EBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="1665" windowWidth="21600" windowHeight="11325" xr2:uid="{6D5A42F7-7D38-4943-B595-C9DA75DE3F05}"/>
+    <workbookView xWindow="1380" yWindow="1530" windowWidth="21600" windowHeight="11325" xr2:uid="{6D5A42F7-7D38-4943-B595-C9DA75DE3F05}"/>
   </bookViews>
   <sheets>
     <sheet name="PartnerPerformance" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>PartnerID</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>STT</t>
+  </si>
+  <si>
+    <t>TotalCancelled</t>
+  </si>
+  <si>
+    <t>CancelledRevenue</t>
   </si>
 </sst>
 </file>
@@ -394,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C758970-8B0A-4075-AFC8-B9A4156059E2}">
-  <dimension ref="A2:F2"/>
+  <dimension ref="A2:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,9 +413,12 @@
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -427,6 +436,12 @@
       </c>
       <c r="F2" t="s">
         <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
